--- a/Spreadsheet/Target2.xlsx
+++ b/Spreadsheet/Target2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,9 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,7 +1131,7 @@
   <dimension ref="A1:L501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -1179,10 +1176,10 @@
       <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
@@ -1211,10 +1208,10 @@
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="43"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
@@ -1238,7 +1235,7 @@
       <c r="G3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="22"/>
       <c r="J3" s="1"/>
       <c r="K3" s="10"/>
@@ -1266,7 +1263,7 @@
         <v>74</v>
       </c>
       <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="22"/>
       <c r="J4" s="1"/>
       <c r="K4" s="11"/>
@@ -1293,18 +1290,22 @@
       <c r="F5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="G5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="22"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -1322,13 +1323,13 @@
       <c r="G6" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="22"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1336,13 +1337,13 @@
       <c r="A7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="30" t="s">
@@ -1351,24 +1352,28 @@
       <c r="F7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="30"/>
+      <c r="G7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="22"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="30" t="s">
@@ -1377,24 +1382,24 @@
       <c r="F8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="30"/>
       <c r="I8" s="22"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="30" t="s">
@@ -1403,14 +1408,14 @@
       <c r="F9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="30"/>
       <c r="I9" s="22"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1418,11 +1423,11 @@
       <c r="A10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="30" t="s">
@@ -1431,22 +1436,22 @@
       <c r="F10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="30"/>
       <c r="I10" s="22"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="30" t="s">
@@ -1455,22 +1460,22 @@
       <c r="F11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="30"/>
       <c r="I11" s="22"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -1479,14 +1484,14 @@
       <c r="F12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="30"/>
       <c r="I12" s="22"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="46" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1494,11 +1499,11 @@
       <c r="A13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="30" t="s">
@@ -1507,22 +1512,22 @@
       <c r="F13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="30"/>
       <c r="I13" s="22"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="30" t="s">
@@ -1531,52 +1536,52 @@
       <c r="F14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="35"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="30"/>
       <c r="I14" s="22"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="35"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="30"/>
       <c r="I15" s="22"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="35"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="30"/>
       <c r="I16" s="22"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
